--- a/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,96; 4,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,27; 3,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,61; 3,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>4,31; 10,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>4,35; 10,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,87; 11,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,93; 6,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,63; 6,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,57; 6,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,73; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,62; 4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,45; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,4; 2,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,72; 6,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,85; 8,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,06; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,48; 3,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,05; 4,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,58; 5,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,01; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,2; 2,81</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,3; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,59; 3,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,72; 7,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>3,39; 8,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>3,47; 8,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,81; 6,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,83; 10,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,07; 5,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,41; 5,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,03; 3,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,72; 7,93</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,66; 5,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,96; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,53; 3,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,37; 3,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,49; 9,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,35; 9,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,04; 10,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,47; 4,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,71; 6,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,49; 5,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,3; 6,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,16; 3,38</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,48; 4,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,46; 5,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,68; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,09; 15,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,29; 6,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>6,52; 12,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,46; 5,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,39; 8,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,87; 3,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,68; 8,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,68; 3,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,3; 2,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,68; 4,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,95; 9,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,93; 8,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,85; 6,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,78; 9,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,57; 6,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,63; 4,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,35; 3,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,68; 6,52</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,75; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,45; 3,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,03; 6,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,72; 8,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,77; 8,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,39; 5,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,85; 10,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,67; 6,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,92; 5,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,25; 4,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,72; 7,84</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,51; 3,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,28; 1,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,23; 4,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,94; 5,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,35; 5,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,24; 2,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,15; 3,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,84; 3,41</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,64; 3,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,68; 1,55</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,74; 2,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,93; 1,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,94; 1,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,52; 6,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,22; 6,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,51; 5,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,37; 4,37</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,26; 4,22</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,39; 3,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,28; 4,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,47</t>
+          <t>0,58; 3,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 9,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,0</t>
+          <t>5,74; 11,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 6,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,51</t>
+          <t>3,35; 6,23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,39</t>
+          <t>0,39; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,91</t>
+          <t>1,43; 3,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,81</t>
+          <t>1,16; 2,7</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,21</t>
+          <t>2,69; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,29</t>
+          <t>5,76; 10,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,93</t>
+          <t>4,62; 7,78</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,06</t>
+          <t>0,56; 3,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,31</t>
+          <t>0,36; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,36</t>
+          <t>5,8; 11,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,25</t>
+          <t>1,03; 3,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,95</t>
+          <t>3,44; 6,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,38</t>
+          <t>0,97; 3,05</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,85</t>
+          <t>1,47; 5,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,19</t>
+          <t>6,6; 12,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,08</t>
+          <t>4,74; 8,14</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,94</t>
+          <t>1,65; 4,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,27</t>
+          <t>4,77; 9,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,52</t>
+          <t>3,62; 6,41</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,47</t>
+          <t>2,9; 6,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,38</t>
+          <t>2,9; 9,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,84</t>
+          <t>3,48; 7,22</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,7</t>
+          <t>1,23; 2,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,55</t>
+          <t>0,48; 1,41</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,52</t>
+          <t>1,46; 2,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,86</t>
+          <t>4,11; 5,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,28; 4,12</t>
+          <t>2,96; 3,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,86</t>
+          <t>1,03; 4,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,85</t>
+          <t>0,65; 4,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,16</t>
+          <t>0,27; 2,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,17</t>
+          <t>0,72; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,88</t>
+          <t>4,2; 10,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,74</t>
+          <t>3,57; 9,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,83</t>
+          <t>4,35; 10,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,0</t>
+          <t>5,94; 10,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,8</t>
+          <t>2,93; 6,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,21</t>
+          <t>2,52; 6,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,19</t>
+          <t>2,64; 6,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,23</t>
+          <t>3,43; 6,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,88</t>
+          <t>0,75; 4,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,05</t>
+          <t>0,61; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,33</t>
+          <t>0,39; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,36</t>
+          <t>2,75; 6,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,18</t>
+          <t>3,91; 8,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,69</t>
+          <t>1,22; 3,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,78</t>
+          <t>1,54; 3,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,45</t>
+          <t>2,0; 4,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,51</t>
+          <t>2,54; 5,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,62</t>
+          <t>1,0; 2,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,7</t>
+          <t>1,14; 2,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,56</t>
+          <t>0,3; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,57</t>
+          <t>0,58; 3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,16</t>
+          <t>2,54; 6,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,38</t>
+          <t>3,31; 8,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,64</t>
+          <t>3,62; 8,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,12</t>
+          <t>1,91; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,19</t>
+          <t>5,83; 10,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,02</t>
+          <t>2,18; 4,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,4</t>
+          <t>2,31; 5,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,45</t>
+          <t>1,16; 3,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,78</t>
+          <t>4,84; 7,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,15</t>
+          <t>1,67; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,16</t>
+          <t>0,5; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,09</t>
+          <t>0,52; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,46</t>
+          <t>0,35; 4,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,86</t>
+          <t>4,7; 9,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,97</t>
+          <t>5,94; 11,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,79</t>
+          <t>5,36; 10,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,62</t>
+          <t>1,05; 3,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,87</t>
+          <t>3,79; 6,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,82</t>
+          <t>3,63; 6,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,42</t>
+          <t>3,29; 6,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,05</t>
+          <t>1,05; 2,9</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,86</t>
+          <t>0,49; 4,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,85</t>
+          <t>1,56; 5,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,18</t>
+          <t>2,66; 9,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,18</t>
+          <t>6,14; 14,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,31</t>
+          <t>1,4; 6,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,37</t>
+          <t>6,57; 12,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,01</t>
+          <t>1,49; 4,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,33</t>
+          <t>3,72; 8,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,38</t>
+          <t>0,86; 3,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,14</t>
+          <t>4,6; 8,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,91</t>
+          <t>0,7; 4,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,87</t>
+          <t>0,3; 3,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,81</t>
+          <t>1,54; 4,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,82</t>
+          <t>4,17; 10,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,52</t>
+          <t>2,93; 8,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,52</t>
+          <t>1,8; 6,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,24</t>
+          <t>4,98; 9,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,03</t>
+          <t>2,73; 6,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,5</t>
+          <t>1,78; 4,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,99</t>
+          <t>1,34; 3,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,41</t>
+          <t>3,59; 6,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,82</t>
+          <t>1,78; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,56</t>
+          <t>0,48; 2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,96</t>
+          <t>1,47; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,25</t>
+          <t>2,8; 6,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,73</t>
+          <t>4,54; 8,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,71</t>
+          <t>4,76; 8,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,31</t>
+          <t>2,46; 5,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,74</t>
+          <t>3,26; 9,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,04</t>
+          <t>3,69; 6,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,1</t>
+          <t>3,04; 5,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,28</t>
+          <t>2,25; 4,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,22</t>
+          <t>3,65; 7,35</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,76</t>
+          <t>1,47; 3,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,62</t>
+          <t>0,27; 1,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,74</t>
+          <t>0,35; 1,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,89</t>
+          <t>2,24; 4,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,94</t>
+          <t>2,99; 6,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,0</t>
+          <t>2,45; 5,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,72</t>
+          <t>1,26; 2,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,81</t>
+          <t>2,14; 3,9</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,41</t>
+          <t>1,8; 3,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,2</t>
+          <t>1,59; 3,22</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,41</t>
+          <t>0,54; 1,41</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,86</t>
+          <t>1,79; 2,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,83</t>
+          <t>1,0; 1,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,68</t>
+          <t>0,93; 1,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,45</t>
+          <t>1,47; 2,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,13</t>
+          <t>4,56; 6,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,9</t>
+          <t>5,23; 6,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,84</t>
+          <t>3,49; 4,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,7</t>
+          <t>4,07; 5,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,37</t>
+          <t>3,31; 4,24</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,22</t>
+          <t>3,26; 4,2</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,16</t>
+          <t>2,35; 3,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,95</t>
+          <t>2,98; 4,0</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido reconstituyentes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6508</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4807</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18050</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16516</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20762</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24460</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23025</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23881</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28134</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2813; 13162</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1879; 13868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>801; 8166</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2241; 10347</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10949; 27999</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9978; 27359</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12569; 31026</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17191; 31358</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15633; 36408</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14357; 36212</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15395; 36867</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20643; 37571</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9088</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8696</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6044</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21603</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29540</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30691</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38236</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17706</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3683; 20510</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3105; 23526</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2255; 12586</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2029; 12995</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13845; 31024</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20442; 43672</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6370; 20798</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7901; 19942</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19913; 43937</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26132; 53493</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10274; 27976</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11720; 27934</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13476</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17869</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19348</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11750</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27107</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21714</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24162</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13340</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40582</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>946; 11263</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1869; 10446</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4823</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8000; 21975</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11090; 28326</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12291; 29661</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6433; 20345</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20344; 36013</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14286; 31984</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15323; 35007</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7604; 22611</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32160; 51490</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11402</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5304</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25314</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32709</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29888</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9837</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36716</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38013</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35664</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13687</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5991; 20190</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1855; 11772</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1941; 11811</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1105; 12663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17464; 34946</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23047; 45854</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20760; 41630</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4983; 17160</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27656; 49846</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>27658; 52560</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24948; 49258</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8265; 22816</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5557</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10889</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20912</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18556</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11784</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25082</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24113</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1051; 9627</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4006</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2787; 9826</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5519; 19537</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13477; 32362</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3060; 14953</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13706; 25213</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6138; 19542</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16061; 36145</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3717; 14880</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17821; 32068</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4752</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2896</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7566</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18164</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14076</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10311</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17561</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22916</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16068</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13207</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25127</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1897; 10837</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7044</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>789; 7962</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4146; 12438</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11595; 28042</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8189; 23095</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4923; 17705</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12796; 24548</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14966; 33948</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9850; 25343</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7201; 21321</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18915; 32380</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18504</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8573</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16236</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26415</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41532</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>44466</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>25942</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58118</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60036</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>53039</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42179</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>84533</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10963; 29643</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3200; 17076</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9648; 25681</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>17491; 37634</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28978; 55591</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33053; 60476</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17012; 36725</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27721; 82595</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>46262; 75790</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>41257; 71050</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>30289; 55991</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>53851; 108309</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>18380</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6791</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>26266</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>35463</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>29680</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13663</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>44646</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>40961</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>36471</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>15417</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10905; 29253</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2067; 12435</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2755; 13394</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7145</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>17584; 37287</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>24578; 49419</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>20258; 42611</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9021; 20094</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>32635; 59478</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>28806; 54729</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>25592; 51637</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>8875; 23139</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>43343</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>68876</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>179686</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>213030</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>147085</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>181169</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>252963</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>258585</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>190428</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>250045</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>58615; 94985</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>34073; 61591</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>31640; 58547</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>50926; 86019</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>154147; 204663</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>185300; 243332</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>123591; 172901</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>148904; 206724</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>220429; 281987</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>227342; 292577</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>162858; 218963</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>212144; 284391</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>